--- a/xlsx/技术史_intext.xlsx
+++ b/xlsx/技术史_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="603">
   <si>
     <t>技术史</t>
   </si>
@@ -29,7 +29,7 @@
     <t>科学史</t>
   </si>
   <si>
-    <t>政策_政策_政治學_技术史</t>
+    <t>政策_政策_政治学_技术史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sociology_of_the_history_of_science</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E9%BB%83%E9%87%91%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>伊斯蘭黃金時代</t>
+    <t>伊斯兰黄金时代</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_science_in_the_Renaissance</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E7%A7%91%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>中世紀科學史</t>
+    <t>中世纪科学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A7%91%E5%AD%A6%E5%8F%B2</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E4%BC%8A%E6%96%AF%E8%98%AD%E4%B8%96%E7%95%8C%E7%9A%84%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀伊斯蘭世界的科學</t>
+    <t>中世纪伊斯兰世界的科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%A6</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>人類學史</t>
+    <t>人类学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%80%9D%E6%83%B3%E5%8F%B2</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>地理學歷史</t>
+    <t>地理学历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>語言學史</t>
+    <t>语言学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>社會學史</t>
+    <t>社会学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_sustainability</t>
@@ -407,19 +407,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會學家</t>
+    <t>社会学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類學</t>
+    <t>人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%BC%94%E5%8C%96</t>
   </si>
   <si>
-    <t>社會演化</t>
+    <t>社会演化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E6%BC%94%E5%8C%96</t>
@@ -479,19 +479,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%B4%E9%A4%8A</t>
   </si>
   <si>
-    <t>馴養</t>
+    <t>驯养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B1%AC%E5%8A%A0%E5%B7%A5</t>
   </si>
   <si>
-    <t>金屬加工</t>
+    <t>金属加工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%9C</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E6%AF%8D%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>字母系統</t>
+    <t>字母系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AB%E4%BD%9C</t>
   </si>
   <si>
-    <t>寫作</t>
+    <t>写作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90</t>
@@ -557,13 +557,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E7%9F%B3%E5%99%A8%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>舊石器時代</t>
+    <t>旧石器时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9F%B3%E5%99%A8%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>新石器時代</t>
+    <t>新石器时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%A7%E7%9F%B3</t>
@@ -605,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>原始藝術</t>
+    <t>原始艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%80%AB%E5%A4%9A%E7%88%BE%E5%A4%AB%E7%9A%84%E7%B6%AD%E7%B4%8D%E6%96%AF</t>
   </si>
   <si>
-    <t>維倫多爾夫的維納斯</t>
+    <t>维伦多尔夫的维纳斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E4%B9%83%E4%BC%8A</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E9%8A%85%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>青銅時代</t>
+    <t>青铜时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E9%93%9C%E6%97%B6%E4%BB%A3</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8B%A9%E7%8D%B5%E6%8E%A1%E9%9B%86</t>
   </si>
   <si>
-    <t>狩獵採集</t>
+    <t>狩猎采集</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B6%E7%82%BC</t>
@@ -659,19 +659,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%85</t>
   </si>
   <si>
-    <t>銅</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB</t>
   </si>
   <si>
-    <t>錫</t>
+    <t>锡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E9%8A%85</t>
   </si>
   <si>
-    <t>青銅</t>
+    <t>青铜</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Three-age_System</t>
@@ -683,13 +680,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐亞大陸</t>
+    <t>欧亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E7%81%A3</t>
   </si>
   <si>
-    <t>孟加拉灣</t>
+    <t>孟加拉湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%BE%BE%E6%9B%BC%E7%BE%A4%E5%B2%9B</t>
@@ -707,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞馬遜人</t>
+    <t>亚马逊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%9C%E5%99%A8%E6%97%B6%E4%BB%A3</t>
@@ -719,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E5%99%A8%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>鐵器時代</t>
+    <t>铁器时代</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/bloomery</t>
@@ -731,13 +728,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC</t>
   </si>
   <si>
-    <t>鋼</t>
+    <t>钢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8D%9B%E9%80%A0</t>
   </si>
   <si>
-    <t>鍛造</t>
+    <t>锻造</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/hill_fort</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD4.0</t>
   </si>
   <si>
-    <t>工業4.0</t>
+    <t>工业4.0</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E8%BD%A6</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E6%B0%B4%E9%A6%AC%E6%A1%B6</t>
   </si>
   <si>
-    <t>抽水馬桶</t>
+    <t>抽水马桶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E7%93%A6%E7%89%B9</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E5%8F%B2%E8%92%82%E8%8A%AC%E7%94%9F</t>
   </si>
   <si>
-    <t>喬治·史蒂芬生</t>
+    <t>乔治·史蒂芬生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E8%B7%AF</t>
@@ -833,13 +830,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E7%89%B9%E9%87%8C%E7%B6%AD%E8%A5%BF%E5%85%8B</t>
   </si>
   <si>
-    <t>理查德·特里維西克</t>
+    <t>理查德·特里维西克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD%E7%81%AB%E8%BB%8A</t>
   </si>
   <si>
-    <t>蒸汽火車</t>
+    <t>蒸汽火车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%96%AF</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%94%A2%E9%A4%8A%E6%AE%96</t>
   </si>
   <si>
-    <t>水產養殖</t>
+    <t>水产养殖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BA%A7%E5%AD%A6</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>食品化學</t>
+    <t>食品化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%B7%A5%E7%A8%8B</t>
@@ -965,13 +962,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康科學</t>
+    <t>健康科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%8C%96%E6%AA%A2%E9%A9%97</t>
   </si>
   <si>
-    <t>生化檢驗</t>
+    <t>生化检验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%AF%E7%90%86%E5%AD%A6</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%88%A9%E5%B7%A5%E7%A8%8B</t>
@@ -1067,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>結構工程</t>
+    <t>结构工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8A%80%E6%9C%AF</t>
@@ -1127,31 +1124,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E8%97%A5</t>
   </si>
   <si>
-    <t>彈藥</t>
+    <t>弹药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E5%BD%88</t>
   </si>
   <si>
-    <t>炸彈</t>
+    <t>炸弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>軍事技術</t>
+    <t>军事技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>電子作戰</t>
+    <t>电子作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%8F%AF%E5%81%B5%E6%B8%AC%E6%80%A7%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>低可偵測性技術</t>
+    <t>低可侦测性技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B5</t>
@@ -1181,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -1223,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>軟件工程</t>
+    <t>软件工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E6%8A%80%E6%9C%AF</t>
@@ -1319,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>電機工程學</t>
+    <t>电机工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%B7%A5%E7%A8%8B</t>
@@ -1331,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>工程技術</t>
+    <t>工程技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
@@ -1397,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>運輸工程</t>
+    <t>运输工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E6%9C%BA%E6%A2%B0%E5%AD%A6</t>
@@ -1415,7 +1412,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0</t>
   </si>
   <si>
-    <t>製造</t>
+    <t>制造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0</t>
@@ -1493,13 +1490,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -1511,7 +1508,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%B7%A5%E7%A8%8B</t>
@@ -1523,7 +1520,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>生態工程</t>
+    <t>生态工程</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Clean_technology</t>
@@ -1547,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4</t>
@@ -1589,7 +1586,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>微系統</t>
+    <t>微系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%8A%80%E6%9C%AF</t>
@@ -1625,15 +1622,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E8%A8%AD%E6%96%BD</t>
   </si>
   <si>
-    <t>基礎設施</t>
+    <t>基础设施</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E6%98%8E%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
@@ -1643,13 +1637,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>機器</t>
+    <t>机器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%83%BD</t>
@@ -1673,19 +1667,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%97%E5%8C%96%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>數字化革命</t>
+    <t>数字化革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>第三次工業革命</t>
+    <t>第三次工业革命</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Outline_of_prehistoric_technology</t>
@@ -1733,7 +1727,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E5%A3%9E%E6%80%A7%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>破壞性創新</t>
+    <t>破坏性创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A7%91%E6%8A%80</t>
@@ -1763,7 +1757,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E5%AE%98%E5%83%9A</t>
   </si>
   <si>
-    <t>技術官僚</t>
+    <t>技术官僚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%A5%87%E5%BC%82%E7%82%B9</t>
@@ -1805,7 +1799,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>新興技術列表</t>
+    <t>新兴技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E4%BC%A0%E6%92%AD%E8%80%85</t>
@@ -1823,7 +1817,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -5274,7 +5268,7 @@
         <v>213</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="G107" t="n">
         <v>20</v>
@@ -5300,10 +5294,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -5329,10 +5323,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>10</v>
@@ -5358,10 +5352,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5387,10 +5381,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5416,10 +5410,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5445,10 +5439,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5474,10 +5468,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5503,10 +5497,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5532,10 +5526,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5561,10 +5555,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>5</v>
@@ -5590,10 +5584,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5619,10 +5613,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -5648,10 +5642,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5677,10 +5671,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5706,10 +5700,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5735,10 +5729,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5764,10 +5758,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -5793,10 +5787,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5822,10 +5816,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5851,10 +5845,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5880,10 +5874,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5909,10 +5903,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5938,10 +5932,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5967,10 +5961,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5996,10 +5990,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6025,10 +6019,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6054,10 +6048,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6083,10 +6077,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6112,10 +6106,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6141,10 +6135,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6170,10 +6164,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6199,10 +6193,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6228,10 +6222,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6257,10 +6251,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6286,10 +6280,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6315,10 +6309,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6344,10 +6338,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>5</v>
@@ -6373,10 +6367,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6402,10 +6396,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6431,10 +6425,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6460,10 +6454,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6489,10 +6483,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6518,10 +6512,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6547,10 +6541,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
         <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>302</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6576,10 +6570,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
         <v>303</v>
-      </c>
-      <c r="F152" t="s">
-        <v>304</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6605,10 +6599,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
         <v>305</v>
-      </c>
-      <c r="F153" t="s">
-        <v>306</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6634,10 +6628,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
         <v>307</v>
-      </c>
-      <c r="F154" t="s">
-        <v>308</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6663,10 +6657,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
         <v>309</v>
-      </c>
-      <c r="F155" t="s">
-        <v>310</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6692,10 +6686,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
         <v>311</v>
-      </c>
-      <c r="F156" t="s">
-        <v>312</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6721,10 +6715,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
         <v>313</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6750,10 +6744,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
         <v>315</v>
-      </c>
-      <c r="F158" t="s">
-        <v>316</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6779,10 +6773,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F159" t="s">
         <v>317</v>
-      </c>
-      <c r="F159" t="s">
-        <v>318</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6808,10 +6802,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>318</v>
+      </c>
+      <c r="F160" t="s">
         <v>319</v>
-      </c>
-      <c r="F160" t="s">
-        <v>320</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6837,10 +6831,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>320</v>
+      </c>
+      <c r="F161" t="s">
         <v>321</v>
-      </c>
-      <c r="F161" t="s">
-        <v>322</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6866,10 +6860,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>322</v>
+      </c>
+      <c r="F162" t="s">
         <v>323</v>
-      </c>
-      <c r="F162" t="s">
-        <v>324</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6895,10 +6889,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>324</v>
+      </c>
+      <c r="F163" t="s">
         <v>325</v>
-      </c>
-      <c r="F163" t="s">
-        <v>326</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6924,10 +6918,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>326</v>
+      </c>
+      <c r="F164" t="s">
         <v>327</v>
-      </c>
-      <c r="F164" t="s">
-        <v>328</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6953,10 +6947,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>328</v>
+      </c>
+      <c r="F165" t="s">
         <v>329</v>
-      </c>
-      <c r="F165" t="s">
-        <v>330</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6982,10 +6976,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>330</v>
+      </c>
+      <c r="F166" t="s">
         <v>331</v>
-      </c>
-      <c r="F166" t="s">
-        <v>332</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7011,10 +7005,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>332</v>
+      </c>
+      <c r="F167" t="s">
         <v>333</v>
-      </c>
-      <c r="F167" t="s">
-        <v>334</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7040,10 +7034,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>334</v>
+      </c>
+      <c r="F168" t="s">
         <v>335</v>
-      </c>
-      <c r="F168" t="s">
-        <v>336</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -7069,10 +7063,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>336</v>
+      </c>
+      <c r="F169" t="s">
         <v>337</v>
-      </c>
-      <c r="F169" t="s">
-        <v>338</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7098,10 +7092,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>338</v>
+      </c>
+      <c r="F170" t="s">
         <v>339</v>
-      </c>
-      <c r="F170" t="s">
-        <v>340</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7127,10 +7121,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>340</v>
+      </c>
+      <c r="F171" t="s">
         <v>341</v>
-      </c>
-      <c r="F171" t="s">
-        <v>342</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7156,10 +7150,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>342</v>
+      </c>
+      <c r="F172" t="s">
         <v>343</v>
-      </c>
-      <c r="F172" t="s">
-        <v>344</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7185,10 +7179,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>344</v>
+      </c>
+      <c r="F173" t="s">
         <v>345</v>
-      </c>
-      <c r="F173" t="s">
-        <v>346</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7214,10 +7208,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>346</v>
+      </c>
+      <c r="F174" t="s">
         <v>347</v>
-      </c>
-      <c r="F174" t="s">
-        <v>348</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7243,10 +7237,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>348</v>
+      </c>
+      <c r="F175" t="s">
         <v>349</v>
-      </c>
-      <c r="F175" t="s">
-        <v>350</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7272,10 +7266,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>350</v>
+      </c>
+      <c r="F176" t="s">
         <v>351</v>
-      </c>
-      <c r="F176" t="s">
-        <v>352</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7301,10 +7295,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>352</v>
+      </c>
+      <c r="F177" t="s">
         <v>353</v>
-      </c>
-      <c r="F177" t="s">
-        <v>354</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7330,10 +7324,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>354</v>
+      </c>
+      <c r="F178" t="s">
         <v>355</v>
-      </c>
-      <c r="F178" t="s">
-        <v>356</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7359,10 +7353,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>356</v>
+      </c>
+      <c r="F179" t="s">
         <v>357</v>
-      </c>
-      <c r="F179" t="s">
-        <v>358</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7388,10 +7382,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>358</v>
+      </c>
+      <c r="F180" t="s">
         <v>359</v>
-      </c>
-      <c r="F180" t="s">
-        <v>360</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7417,10 +7411,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>360</v>
+      </c>
+      <c r="F181" t="s">
         <v>361</v>
-      </c>
-      <c r="F181" t="s">
-        <v>362</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7446,10 +7440,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>362</v>
+      </c>
+      <c r="F182" t="s">
         <v>363</v>
-      </c>
-      <c r="F182" t="s">
-        <v>364</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7475,10 +7469,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>364</v>
+      </c>
+      <c r="F183" t="s">
         <v>365</v>
-      </c>
-      <c r="F183" t="s">
-        <v>366</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7504,10 +7498,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>366</v>
+      </c>
+      <c r="F184" t="s">
         <v>367</v>
-      </c>
-      <c r="F184" t="s">
-        <v>368</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7533,10 +7527,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>368</v>
+      </c>
+      <c r="F185" t="s">
         <v>369</v>
-      </c>
-      <c r="F185" t="s">
-        <v>370</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7562,10 +7556,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>370</v>
+      </c>
+      <c r="F186" t="s">
         <v>371</v>
-      </c>
-      <c r="F186" t="s">
-        <v>372</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7591,10 +7585,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>372</v>
+      </c>
+      <c r="F187" t="s">
         <v>373</v>
-      </c>
-      <c r="F187" t="s">
-        <v>374</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7620,10 +7614,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>374</v>
+      </c>
+      <c r="F188" t="s">
         <v>375</v>
-      </c>
-      <c r="F188" t="s">
-        <v>376</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7649,10 +7643,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>376</v>
+      </c>
+      <c r="F189" t="s">
         <v>377</v>
-      </c>
-      <c r="F189" t="s">
-        <v>378</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7678,10 +7672,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>378</v>
+      </c>
+      <c r="F190" t="s">
         <v>379</v>
-      </c>
-      <c r="F190" t="s">
-        <v>380</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7707,10 +7701,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>380</v>
+      </c>
+      <c r="F191" t="s">
         <v>381</v>
-      </c>
-      <c r="F191" t="s">
-        <v>382</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7736,10 +7730,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>382</v>
+      </c>
+      <c r="F192" t="s">
         <v>383</v>
-      </c>
-      <c r="F192" t="s">
-        <v>384</v>
       </c>
       <c r="G192" t="n">
         <v>13</v>
@@ -7765,10 +7759,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>384</v>
+      </c>
+      <c r="F193" t="s">
         <v>385</v>
-      </c>
-      <c r="F193" t="s">
-        <v>386</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7794,10 +7788,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>386</v>
+      </c>
+      <c r="F194" t="s">
         <v>387</v>
-      </c>
-      <c r="F194" t="s">
-        <v>388</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7823,10 +7817,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>388</v>
+      </c>
+      <c r="F195" t="s">
         <v>389</v>
-      </c>
-      <c r="F195" t="s">
-        <v>390</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7852,10 +7846,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>390</v>
+      </c>
+      <c r="F196" t="s">
         <v>391</v>
-      </c>
-      <c r="F196" t="s">
-        <v>392</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7881,10 +7875,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>392</v>
+      </c>
+      <c r="F197" t="s">
         <v>393</v>
-      </c>
-      <c r="F197" t="s">
-        <v>394</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7910,10 +7904,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>394</v>
+      </c>
+      <c r="F198" t="s">
         <v>395</v>
-      </c>
-      <c r="F198" t="s">
-        <v>396</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -7939,10 +7933,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>396</v>
+      </c>
+      <c r="F199" t="s">
         <v>397</v>
-      </c>
-      <c r="F199" t="s">
-        <v>398</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7968,10 +7962,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>398</v>
+      </c>
+      <c r="F200" t="s">
         <v>399</v>
-      </c>
-      <c r="F200" t="s">
-        <v>400</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7997,10 +7991,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>400</v>
+      </c>
+      <c r="F201" t="s">
         <v>401</v>
-      </c>
-      <c r="F201" t="s">
-        <v>402</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8026,10 +8020,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>402</v>
+      </c>
+      <c r="F202" t="s">
         <v>403</v>
-      </c>
-      <c r="F202" t="s">
-        <v>404</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8055,10 +8049,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>404</v>
+      </c>
+      <c r="F203" t="s">
         <v>405</v>
-      </c>
-      <c r="F203" t="s">
-        <v>406</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8084,10 +8078,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>406</v>
+      </c>
+      <c r="F204" t="s">
         <v>407</v>
-      </c>
-      <c r="F204" t="s">
-        <v>408</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8113,10 +8107,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>408</v>
+      </c>
+      <c r="F205" t="s">
         <v>409</v>
-      </c>
-      <c r="F205" t="s">
-        <v>410</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8142,10 +8136,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>410</v>
+      </c>
+      <c r="F206" t="s">
         <v>411</v>
-      </c>
-      <c r="F206" t="s">
-        <v>412</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8171,10 +8165,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>412</v>
+      </c>
+      <c r="F207" t="s">
         <v>413</v>
-      </c>
-      <c r="F207" t="s">
-        <v>414</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -8200,10 +8194,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>414</v>
+      </c>
+      <c r="F208" t="s">
         <v>415</v>
-      </c>
-      <c r="F208" t="s">
-        <v>416</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8229,10 +8223,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>416</v>
+      </c>
+      <c r="F209" t="s">
         <v>417</v>
-      </c>
-      <c r="F209" t="s">
-        <v>418</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8258,10 +8252,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>418</v>
+      </c>
+      <c r="F210" t="s">
         <v>419</v>
-      </c>
-      <c r="F210" t="s">
-        <v>420</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8287,10 +8281,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>420</v>
+      </c>
+      <c r="F211" t="s">
         <v>421</v>
-      </c>
-      <c r="F211" t="s">
-        <v>422</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8316,10 +8310,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>422</v>
+      </c>
+      <c r="F212" t="s">
         <v>423</v>
-      </c>
-      <c r="F212" t="s">
-        <v>424</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8345,10 +8339,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>424</v>
+      </c>
+      <c r="F213" t="s">
         <v>425</v>
-      </c>
-      <c r="F213" t="s">
-        <v>426</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8374,10 +8368,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>426</v>
+      </c>
+      <c r="F214" t="s">
         <v>427</v>
-      </c>
-      <c r="F214" t="s">
-        <v>428</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8403,10 +8397,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>428</v>
+      </c>
+      <c r="F215" t="s">
         <v>429</v>
-      </c>
-      <c r="F215" t="s">
-        <v>430</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8432,10 +8426,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>430</v>
+      </c>
+      <c r="F216" t="s">
         <v>431</v>
-      </c>
-      <c r="F216" t="s">
-        <v>432</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8461,10 +8455,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>432</v>
+      </c>
+      <c r="F217" t="s">
         <v>433</v>
-      </c>
-      <c r="F217" t="s">
-        <v>434</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8490,10 +8484,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>434</v>
+      </c>
+      <c r="F218" t="s">
         <v>435</v>
-      </c>
-      <c r="F218" t="s">
-        <v>436</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8519,10 +8513,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>436</v>
+      </c>
+      <c r="F219" t="s">
         <v>437</v>
-      </c>
-      <c r="F219" t="s">
-        <v>438</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8548,10 +8542,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>438</v>
+      </c>
+      <c r="F220" t="s">
         <v>439</v>
-      </c>
-      <c r="F220" t="s">
-        <v>440</v>
       </c>
       <c r="G220" t="n">
         <v>5</v>
@@ -8577,10 +8571,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>440</v>
+      </c>
+      <c r="F221" t="s">
         <v>441</v>
-      </c>
-      <c r="F221" t="s">
-        <v>442</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8606,10 +8600,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>442</v>
+      </c>
+      <c r="F222" t="s">
         <v>443</v>
-      </c>
-      <c r="F222" t="s">
-        <v>444</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8635,10 +8629,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>444</v>
+      </c>
+      <c r="F223" t="s">
         <v>445</v>
-      </c>
-      <c r="F223" t="s">
-        <v>446</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8664,10 +8658,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>446</v>
+      </c>
+      <c r="F224" t="s">
         <v>447</v>
-      </c>
-      <c r="F224" t="s">
-        <v>448</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8693,10 +8687,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>448</v>
+      </c>
+      <c r="F225" t="s">
         <v>449</v>
-      </c>
-      <c r="F225" t="s">
-        <v>450</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8722,10 +8716,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>450</v>
+      </c>
+      <c r="F226" t="s">
         <v>451</v>
-      </c>
-      <c r="F226" t="s">
-        <v>452</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8751,10 +8745,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>452</v>
+      </c>
+      <c r="F227" t="s">
         <v>453</v>
-      </c>
-      <c r="F227" t="s">
-        <v>454</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8780,10 +8774,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>454</v>
+      </c>
+      <c r="F228" t="s">
         <v>455</v>
-      </c>
-      <c r="F228" t="s">
-        <v>456</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8809,10 +8803,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>456</v>
+      </c>
+      <c r="F229" t="s">
         <v>457</v>
-      </c>
-      <c r="F229" t="s">
-        <v>458</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -8838,10 +8832,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>458</v>
+      </c>
+      <c r="F230" t="s">
         <v>459</v>
-      </c>
-      <c r="F230" t="s">
-        <v>460</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8867,10 +8861,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>460</v>
+      </c>
+      <c r="F231" t="s">
         <v>461</v>
-      </c>
-      <c r="F231" t="s">
-        <v>462</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8896,10 +8890,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>462</v>
+      </c>
+      <c r="F232" t="s">
         <v>463</v>
-      </c>
-      <c r="F232" t="s">
-        <v>464</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8925,10 +8919,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>464</v>
+      </c>
+      <c r="F233" t="s">
         <v>465</v>
-      </c>
-      <c r="F233" t="s">
-        <v>466</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8954,10 +8948,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>466</v>
+      </c>
+      <c r="F234" t="s">
         <v>467</v>
-      </c>
-      <c r="F234" t="s">
-        <v>468</v>
       </c>
       <c r="G234" t="n">
         <v>4</v>
@@ -8983,10 +8977,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>468</v>
+      </c>
+      <c r="F235" t="s">
         <v>469</v>
-      </c>
-      <c r="F235" t="s">
-        <v>470</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9012,10 +9006,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>470</v>
+      </c>
+      <c r="F236" t="s">
         <v>471</v>
-      </c>
-      <c r="F236" t="s">
-        <v>472</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9041,10 +9035,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>472</v>
+      </c>
+      <c r="F237" t="s">
         <v>473</v>
-      </c>
-      <c r="F237" t="s">
-        <v>474</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9070,10 +9064,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>474</v>
+      </c>
+      <c r="F238" t="s">
         <v>475</v>
-      </c>
-      <c r="F238" t="s">
-        <v>476</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9099,10 +9093,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>476</v>
+      </c>
+      <c r="F239" t="s">
         <v>477</v>
-      </c>
-      <c r="F239" t="s">
-        <v>478</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9128,10 +9122,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>478</v>
+      </c>
+      <c r="F240" t="s">
         <v>479</v>
-      </c>
-      <c r="F240" t="s">
-        <v>480</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9157,10 +9151,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>480</v>
+      </c>
+      <c r="F241" t="s">
         <v>481</v>
-      </c>
-      <c r="F241" t="s">
-        <v>482</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9186,10 +9180,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>482</v>
+      </c>
+      <c r="F242" t="s">
         <v>483</v>
-      </c>
-      <c r="F242" t="s">
-        <v>484</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9215,10 +9209,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>484</v>
+      </c>
+      <c r="F243" t="s">
         <v>485</v>
-      </c>
-      <c r="F243" t="s">
-        <v>486</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9244,10 +9238,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>486</v>
+      </c>
+      <c r="F244" t="s">
         <v>487</v>
-      </c>
-      <c r="F244" t="s">
-        <v>488</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9273,10 +9267,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>488</v>
+      </c>
+      <c r="F245" t="s">
         <v>489</v>
-      </c>
-      <c r="F245" t="s">
-        <v>490</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9302,10 +9296,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>490</v>
+      </c>
+      <c r="F246" t="s">
         <v>491</v>
-      </c>
-      <c r="F246" t="s">
-        <v>492</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9331,10 +9325,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>492</v>
+      </c>
+      <c r="F247" t="s">
         <v>493</v>
-      </c>
-      <c r="F247" t="s">
-        <v>494</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9360,10 +9354,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>494</v>
+      </c>
+      <c r="F248" t="s">
         <v>495</v>
-      </c>
-      <c r="F248" t="s">
-        <v>496</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9389,10 +9383,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>496</v>
+      </c>
+      <c r="F249" t="s">
         <v>497</v>
-      </c>
-      <c r="F249" t="s">
-        <v>498</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9418,10 +9412,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>498</v>
+      </c>
+      <c r="F250" t="s">
         <v>499</v>
-      </c>
-      <c r="F250" t="s">
-        <v>500</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9447,10 +9441,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>500</v>
+      </c>
+      <c r="F251" t="s">
         <v>501</v>
-      </c>
-      <c r="F251" t="s">
-        <v>502</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9476,10 +9470,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>502</v>
+      </c>
+      <c r="F252" t="s">
         <v>503</v>
-      </c>
-      <c r="F252" t="s">
-        <v>504</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9505,10 +9499,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>504</v>
+      </c>
+      <c r="F253" t="s">
         <v>505</v>
-      </c>
-      <c r="F253" t="s">
-        <v>506</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9534,10 +9528,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>506</v>
+      </c>
+      <c r="F254" t="s">
         <v>507</v>
-      </c>
-      <c r="F254" t="s">
-        <v>508</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9563,10 +9557,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>508</v>
+      </c>
+      <c r="F255" t="s">
         <v>509</v>
-      </c>
-      <c r="F255" t="s">
-        <v>510</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9592,10 +9586,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>510</v>
+      </c>
+      <c r="F256" t="s">
         <v>511</v>
-      </c>
-      <c r="F256" t="s">
-        <v>512</v>
       </c>
       <c r="G256" t="n">
         <v>3</v>
@@ -9621,10 +9615,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>512</v>
+      </c>
+      <c r="F257" t="s">
         <v>513</v>
-      </c>
-      <c r="F257" t="s">
-        <v>514</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -9650,10 +9644,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>514</v>
+      </c>
+      <c r="F258" t="s">
         <v>515</v>
-      </c>
-      <c r="F258" t="s">
-        <v>516</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -9679,10 +9673,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>516</v>
+      </c>
+      <c r="F259" t="s">
         <v>517</v>
-      </c>
-      <c r="F259" t="s">
-        <v>518</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9708,10 +9702,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>518</v>
+      </c>
+      <c r="F260" t="s">
         <v>519</v>
-      </c>
-      <c r="F260" t="s">
-        <v>520</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9737,10 +9731,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>520</v>
+      </c>
+      <c r="F261" t="s">
         <v>521</v>
-      </c>
-      <c r="F261" t="s">
-        <v>522</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9766,10 +9760,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>522</v>
+      </c>
+      <c r="F262" t="s">
         <v>523</v>
-      </c>
-      <c r="F262" t="s">
-        <v>524</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9795,10 +9789,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>524</v>
+      </c>
+      <c r="F263" t="s">
         <v>525</v>
-      </c>
-      <c r="F263" t="s">
-        <v>526</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9824,10 +9818,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>526</v>
+      </c>
+      <c r="F264" t="s">
         <v>527</v>
-      </c>
-      <c r="F264" t="s">
-        <v>528</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9853,10 +9847,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>528</v>
+      </c>
+      <c r="F265" t="s">
         <v>529</v>
-      </c>
-      <c r="F265" t="s">
-        <v>530</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9882,10 +9876,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>448</v>
+      </c>
+      <c r="F266" t="s">
         <v>449</v>
-      </c>
-      <c r="F266" t="s">
-        <v>450</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9911,10 +9905,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>530</v>
+      </c>
+      <c r="F267" t="s">
         <v>531</v>
-      </c>
-      <c r="F267" t="s">
-        <v>532</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9940,10 +9934,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>532</v>
+      </c>
+      <c r="F268" t="s">
         <v>533</v>
-      </c>
-      <c r="F268" t="s">
-        <v>534</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9969,10 +9963,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>534</v>
+      </c>
+      <c r="F269" t="s">
         <v>535</v>
-      </c>
-      <c r="F269" t="s">
-        <v>536</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9998,10 +9992,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F270" t="s">
-        <v>538</v>
+        <v>120</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10027,10 +10021,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F271" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10056,10 +10050,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F272" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10085,10 +10079,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F273" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10114,10 +10108,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F274" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10143,10 +10137,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F275" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10172,10 +10166,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F276" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G276" t="n">
         <v>8</v>
@@ -10201,10 +10195,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F277" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G277" t="n">
         <v>3</v>
@@ -10230,10 +10224,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>244</v>
+      </c>
+      <c r="F278" t="s">
         <v>245</v>
-      </c>
-      <c r="F278" t="s">
-        <v>246</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10259,10 +10253,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F279" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10288,10 +10282,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F280" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10317,10 +10311,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>246</v>
+      </c>
+      <c r="F281" t="s">
         <v>247</v>
-      </c>
-      <c r="F281" t="s">
-        <v>248</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10346,10 +10340,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F282" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10375,10 +10369,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F283" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10404,10 +10398,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F284" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10433,10 +10427,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F285" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10462,10 +10456,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F286" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10491,10 +10485,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F287" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10520,10 +10514,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F288" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10549,10 +10543,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F289" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10578,10 +10572,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F290" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10607,10 +10601,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F291" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10636,10 +10630,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F292" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10665,10 +10659,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F293" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10694,10 +10688,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F294" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10723,10 +10717,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F295" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10752,10 +10746,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F296" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10781,10 +10775,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F297" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10810,10 +10804,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F298" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10839,10 +10833,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F299" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10868,10 +10862,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F300" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10897,10 +10891,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F301" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -10955,10 +10949,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F303" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10984,10 +10978,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F304" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11013,10 +11007,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F305" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -11042,10 +11036,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F306" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
